--- a/res/Levels/17/wilting flower.xlsx
+++ b/res/Levels/17/wilting flower.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13753\Dropbox\Share\Levels\Level 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dallas\Dropbox\Share\Levels\17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wilting flower" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="3">
   <si>
     <t>dirt</t>
-  </si>
-  <si>
-    <t>dirtt</t>
   </si>
   <si>
     <t>sand</t>
@@ -737,7 +734,77 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <gradientFill degree="90">
@@ -745,7 +812,7 @@
             <color theme="0"/>
           </stop>
           <stop position="0.5">
-            <color rgb="FF00B050"/>
+            <color rgb="FFFF0000"/>
           </stop>
           <stop position="1">
             <color theme="0"/>
@@ -773,7 +840,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </font>
       <fill>
         <gradientFill degree="90">
@@ -781,82 +848,12 @@
             <color theme="0"/>
           </stop>
           <stop position="0.5">
-            <color rgb="FFFF0000"/>
+            <color rgb="FF00B050"/>
           </stop>
           <stop position="1">
             <color theme="0"/>
           </stop>
         </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
       </fill>
     </dxf>
   </dxfs>
@@ -1142,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1670,7 +1667,7 @@
       </c>
       <c r="E11">
         <f>IF(Design!E11="dirt", 1, IF(Design!E11="sapphire", 2,  IF(Design!E11="ruby", 3,  IF(Design!E11="amethyst", 4,  IF(Design!E11="green garnet", 5,  IF(Design!E11="sand", 6,  IF(Design!E11="red tunnel", 7,  IF(Design!E11="blue tunnel", 8,  IF(Design!E11="green tunnel", 9,  IF(Design!E11="root", 10, IF(Design!E11=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f>IF(Design!F11="dirt", 1, IF(Design!F11="sapphire", 2,  IF(Design!F11="ruby", 3,  IF(Design!F11="amethyst", 4,  IF(Design!F11="green garnet", 5,  IF(Design!F11="sand", 6,  IF(Design!F11="red tunnel", 7,  IF(Design!F11="blue tunnel", 8,  IF(Design!F11="green tunnel", 9,  IF(Design!F11="root", 10, IF(Design!F11=ISBLANK(0), 0, 0)))))))))))</f>
@@ -1760,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,10 +1865,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>0</v>
@@ -1887,28 +1884,28 @@
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="6"/>
@@ -1920,22 +1917,22 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
@@ -1951,16 +1948,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>0</v>
@@ -1979,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>0</v>
@@ -2001,19 +1998,19 @@
     </row>
     <row r="12" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>0</v>
@@ -2022,51 +2019,51 @@
         <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:L12">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="green tunnel">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="green tunnel">
       <formula>NOT(ISERROR(SEARCH("green tunnel",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="blue tunnel">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="blue tunnel">
       <formula>NOT(ISERROR(SEARCH("blue tunnel",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="red tunnel">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="red tunnel">
       <formula>NOT(ISERROR(SEARCH("red tunnel",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="sand">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="sand">
       <formula>NOT(ISERROR(SEARCH("sand",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="green garnet">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="green garnet">
       <formula>NOT(ISERROR(SEARCH("green garnet",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="amethyst">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="amethyst">
       <formula>NOT(ISERROR(SEARCH("amethyst",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="ruby">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="ruby">
       <formula>NOT(ISERROR(SEARCH("ruby",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="sapphire">
+    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="sapphire">
       <formula>NOT(ISERROR(SEARCH("sapphire",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="dirt">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="dirt">
       <formula>NOT(ISERROR(SEARCH("dirt",A1)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="10" priority="14">
+    <cfRule type="containsBlanks" dxfId="1" priority="14">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="root">
